--- a/BookMyRoom2.xlsx
+++ b/BookMyRoom2.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="4485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="4485"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="2" r:id="rId1"/>
-    <sheet name="Oyo" sheetId="4" r:id="rId2"/>
-    <sheet name="OyoData" sheetId="5" r:id="rId3"/>
-    <sheet name="SignUpData" sheetId="3" r:id="rId4"/>
+    <sheet name="SignUpData" sheetId="3" r:id="rId2"/>
+    <sheet name="Login" sheetId="6" r:id="rId3"/>
+    <sheet name="LoginData" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="84">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -93,9 +93,6 @@
     <t>navigateTo</t>
   </si>
   <si>
-    <t>https://</t>
-  </si>
-  <si>
     <t>Enter Email Id</t>
   </si>
   <si>
@@ -156,54 +153,12 @@
     <t>TestCase_SignUp_5</t>
   </si>
   <si>
-    <t>" "</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>signup-name-input</t>
-  </si>
-  <si>
-    <t>signup-phone-input</t>
-  </si>
-  <si>
-    <t>Qwerty</t>
-  </si>
-  <si>
-    <t>signup-email-input</t>
-  </si>
-  <si>
-    <t>signup-password-input</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>signin_submit</t>
-  </si>
-  <si>
-    <t>Abcd123</t>
-  </si>
-  <si>
-    <t>(div[class='mdl-cell mdl-cell--6-col modal__rightDivider'] span)[0]</t>
-  </si>
-  <si>
-    <t>"we have sent you a four digit otp please enter it. "</t>
-  </si>
-  <si>
-    <t>https://www.oyorooms.com/register</t>
-  </si>
-  <si>
-    <t>TestCase_SignUp_6</t>
-  </si>
-  <si>
     <t>Click on Sign-me-Up button</t>
   </si>
   <si>
-    <t>ClickSignUp</t>
-  </si>
-  <si>
     <t>xpath</t>
   </si>
   <si>
@@ -229,6 +184,96 @@
   </si>
   <si>
     <t>//button[@type='submit']</t>
+  </si>
+  <si>
+    <t>Aa1</t>
+  </si>
+  <si>
+    <t>Aa2</t>
+  </si>
+  <si>
+    <t>Aa3</t>
+  </si>
+  <si>
+    <t>Aa4</t>
+  </si>
+  <si>
+    <t>Aa5</t>
+  </si>
+  <si>
+    <t>Sl. No.</t>
+  </si>
+  <si>
+    <t>Navigate to Login Page</t>
+  </si>
+  <si>
+    <t>Click  on login  buton</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>Click on submit button</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>clickLogin</t>
+  </si>
+  <si>
+    <t>http://</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),' Login')]</t>
+  </si>
+  <si>
+    <t>//button[@class='btn btn-outline-success']</t>
+  </si>
+  <si>
+    <t>verifyTitle</t>
+  </si>
+  <si>
+    <t>BookMyRoom</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>https://bookmyroomangulardevdotnet.azurewebsites.net/Home</t>
+  </si>
+  <si>
+    <t>clickSignUp</t>
   </si>
 </sst>
 </file>
@@ -262,15 +307,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -294,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,20 +359,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -611,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,9 +698,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
@@ -657,36 +709,38 @@
         <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
+      <c r="A4" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -695,54 +749,58 @@
         <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
+      <c r="A6" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4</v>
+      <c r="A7" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -751,18 +809,18 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>5</v>
+      <c r="A8" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -771,18 +829,18 @@
         <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>6</v>
+      <c r="A9" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
@@ -791,300 +849,73 @@
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>7</v>
+      <c r="A10" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>8</v>
+      <c r="A11" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F12" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="78.28515625" customWidth="1"/>
-    <col min="6" max="6" width="53" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="4">
-        <v>9988112255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1096,162 +927,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,30 +951,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -1301,9 +982,11 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
@@ -1317,7 +1000,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -1325,9 +1008,11 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>8</v>
@@ -1341,7 +1026,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -1349,9 +1034,11 @@
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>8</v>
@@ -1365,7 +1052,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -1373,9 +1060,11 @@
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>8</v>
@@ -1389,7 +1078,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -1397,9 +1086,11 @@
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>8</v>
@@ -1410,156 +1101,6 @@
       <c r="H6" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1572,4 +1113,190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>